--- a/Cov.xlsx
+++ b/Cov.xlsx
@@ -76,7 +76,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>-0.012146356693596636</v>
+        <v>-0.012146356693596634</v>
       </c>
     </row>
     <row r="2">
@@ -84,7 +84,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.05693807882210715</v>
+        <v>-0.05693807882210727</v>
       </c>
     </row>
     <row r="3">
@@ -92,7 +92,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.010692329512347807</v>
+        <v>-0.010692329512347805</v>
       </c>
     </row>
   </sheetData>
